--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -2025,7 +2025,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:15 am meet for Sarah, Lori, Qiana at WI Dells Walmart</t>
+          <t>6:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2074,12 +2074,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>*Qiana to meet and ride w/ Sarah &amp; Lori at WI Dells Walmart
-130 Commerce St, WI Dells</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2117,9 +2112,21 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2158,19 +2165,15 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2213,15 +2216,19 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Camry 3, bring Modas Equip &amp; comp</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2262,21 +2269,9 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Camry 3, bring Modas Equip &amp; comp</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2362,7 +2357,11 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2425,7 +2424,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2488,7 +2487,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2737, VERONA</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2536,7 +2535,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>FESTIVAL #2737, VERONA</t>
+          <t>660 HOMETOWN CIRCLE - LIFO</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2596,7 +2595,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>660 HOMETOWN CIRCLE - LIFO</t>
+          <t>https://goo.gl/maps/uMWf8LjrrGkj4TXq9</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2660,7 +2659,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uMWf8LjrrGkj4TXq9</t>
+          <t>*IL Meet is 5:15 am at IL office</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2722,11 +2721,7 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:15 am at IL office</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2785,9 +2780,21 @@
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2843,19 +2850,15 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2911,15 +2914,20 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2962,20 +2970,15 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3006,15 +3009,20 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3062,7 +3070,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3121,7 +3129,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -3173,7 +3181,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -3225,7 +3233,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -3280,7 +3288,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -1563,7 +1563,11 @@
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Covid tests should all be counted with a price. New vendor price is in file. If a site has old ones left will need to get a price on site. </t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,22 +1618,9 @@
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -1684,18 +1671,18 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Optima, Equip</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1749,15 +1736,20 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -1808,12 +1800,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1861,8 +1853,16 @@
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -1964,11 +1964,7 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2013,7 +2009,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAN-ITEM LEVEL   </t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2064,7 +2060,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL   </t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2103,7 +2099,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1408 WEELIHAN AVE</t>
+          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2154,7 +2150,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
+          <t>1408 WEELIHAN AVE</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2205,7 +2201,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2260,7 +2256,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2303,7 +2299,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2338,7 +2334,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1515 ACADEMY ST</t>
+          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2402,7 +2398,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
+          <t>1515 ACADEMY ST</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2467,7 +2463,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2514,7 +2510,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAN-ITEM LEVEL     </t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2574,7 +2570,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL     </t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2638,7 +2634,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>901 W BRIDGE ST</t>
+          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2703,7 +2699,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
+          <t>901 W BRIDGE ST</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2763,7 +2759,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>7:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
+          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2833,7 +2829,11 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>7:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
@@ -2896,21 +2896,9 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -2954,17 +2942,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driver 1/2  </t>
+          <t>Driver 1/2, Equip</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -2999,9 +2987,21 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Driver 1/2  </t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -3116,11 +3116,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3170,7 +3166,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3222,7 +3218,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3277,7 +3273,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>633 JUNCTION CT</t>
+          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3332,7 +3328,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
+          <t>633 JUNCTION CT</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3371,7 +3367,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
+          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3422,7 +3418,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3467,7 +3463,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
@@ -3509,22 +3509,9 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
@@ -3567,15 +3554,20 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -3626,12 +3618,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3681,20 +3673,15 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3733,17 +3720,18 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3782,9 +3770,21 @@
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3849,11 +3849,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -3894,7 +3890,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3937,7 +3933,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>SENDIK'S, WHITEFISH BAY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3980,7 +3976,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>500 E SILVER SPRING DR</t>
+          <t>SENDIK'S, WHITEFISH BAY</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4011,7 +4007,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vzSQwdms9GJ2</t>
+          <t>500 E SILVER SPRING DR</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4040,7 +4036,11 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vzSQwdms9GJ2</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -4070,22 +4070,9 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -4116,17 +4103,18 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
@@ -4159,12 +4147,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -4202,12 +4190,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4245,12 +4233,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4288,12 +4276,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4331,12 +4319,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4370,12 +4358,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -4421,12 +4409,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -4473,12 +4461,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4518,9 +4506,21 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
@@ -4589,11 +4589,7 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
@@ -4630,7 +4626,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -4673,7 +4669,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -4704,7 +4700,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -4735,7 +4731,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -4766,7 +4762,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -4795,7 +4791,11 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
@@ -4821,21 +4821,9 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -4862,15 +4850,19 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -4897,12 +4889,12 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
@@ -4932,12 +4924,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -4967,12 +4959,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -5002,12 +4994,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -5022,6 +5014,41 @@
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,12 +1563,12 @@
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Covid tests should all be counted with a price. New vendor price is in file. If a site has old ones left will need to get a price on site. </t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Covid tests should all be counted with a price. New vendor price is</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1619,7 +1619,11 @@
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> in file.  If a site has old ones left will need to get a price on site. </t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -1669,22 +1673,9 @@
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -1736,18 +1727,18 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Optima, Equip</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -1800,15 +1791,20 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -1855,12 +1851,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1920,8 +1916,16 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2007,11 +2011,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2060,7 +2060,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAN-ITEM LEVEL   </t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL   </t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2150,7 +2150,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1408 WEELIHAN AVE</t>
+          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
+          <t>1408 WEELIHAN AVE</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2256,7 +2256,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2334,7 +2334,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1515 ACADEMY ST</t>
+          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2463,7 +2463,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
+          <t>1515 ACADEMY ST</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2570,7 +2570,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAN-ITEM LEVEL     </t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2634,7 +2634,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL     </t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>901 W BRIDGE ST</t>
+          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2759,7 +2759,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
+          <t>901 W BRIDGE ST</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2831,7 +2831,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>7:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
+          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2897,7 +2897,11 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>7:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -2940,21 +2944,9 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -2989,17 +2981,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driver 1/2  </t>
+          <t>Driver 1/2, Equip</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3060,9 +3052,21 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Driver 1/2  </t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
@@ -3164,11 +3168,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3218,7 +3218,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3273,7 +3273,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3328,7 +3328,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>633 JUNCTION CT</t>
+          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3367,7 +3367,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
+          <t>633 JUNCTION CT</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3418,7 +3418,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
+          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3510,7 +3510,11 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
@@ -3552,22 +3556,9 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -3618,15 +3609,20 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
@@ -3673,12 +3669,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3720,20 +3716,15 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3772,17 +3763,18 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -3821,9 +3813,21 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3888,11 +3892,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
@@ -3933,7 +3933,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3976,7 +3976,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>SENDIK'S, WHITEFISH BAY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4007,7 +4007,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>500 E SILVER SPRING DR</t>
+          <t>SENDIK'S, WHITEFISH BAY</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4038,7 +4038,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vzSQwdms9GJ2</t>
+          <t>500 E SILVER SPRING DR</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4071,7 +4071,11 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vzSQwdms9GJ2</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4101,22 +4105,9 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4147,17 +4138,18 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
@@ -4190,12 +4182,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4233,12 +4225,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4276,12 +4268,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4319,12 +4311,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4358,12 +4350,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -4409,12 +4401,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -4461,12 +4453,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4508,12 +4500,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -4553,9 +4545,21 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
@@ -4624,11 +4628,7 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
@@ -4669,7 +4669,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -4700,7 +4700,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -4731,7 +4731,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -4762,7 +4762,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -4822,7 +4822,11 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -4848,21 +4852,9 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
@@ -4889,15 +4881,19 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
@@ -4924,12 +4920,12 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
@@ -4959,12 +4955,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -4994,12 +4990,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -5029,12 +5025,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -5049,6 +5045,41 @@
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -656,7 +656,11 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Festival Foods is going through the process of selling to new ownership.  Starting Thursday (9/18) there may be extra store personnel at the Festivals for the remainder of this round of inventories.  All processes are expected to remain the same, you may encounter a few extra recounts however due to the sale.  Thank you for all your hard work and for keeping our customers happy!</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -571,7 +571,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Camry 3 will be at Butittas for a few days</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -2230,7 +2234,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Camry 3, bring Modas Equip &amp; comp</t>
+          <t>Bring Modas Equip &amp; comp</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -3624,7 +3628,7 @@
       <c r="O62" t="inlineStr">
         <is>
           <t>@ Store,
-Camry 3, Equip</t>
+Silver Van, Equip</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,11 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Optima at Safelite for window replacement</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1682,7 +1686,11 @@
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>*Nate - Drop off Optima after store at Safelite, and the service is already paid for*</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -1733,22 +1741,9 @@
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -1799,18 +1794,18 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Optima, Equip</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -1859,15 +1854,20 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -1926,12 +1926,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -1975,8 +1975,16 @@
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2066,11 +2074,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2107,7 +2111,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAN-ITEM LEVEL   </t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2158,7 +2162,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL   </t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2209,7 +2213,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1408 WEELIHAN AVE</t>
+          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2264,7 +2268,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
+          <t>1408 WEELIHAN AVE</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2307,7 +2311,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2342,7 +2346,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2360,7 +2364,7 @@
       <c r="S39" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima, Equip</t>
+Gray Van, Equip</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2406,7 +2410,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2424,7 +2428,7 @@
       <c r="S40" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima,
+Gray Van,
 Trainer</t>
         </is>
       </c>
@@ -2471,7 +2475,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1515 ACADEMY ST</t>
+          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2518,7 +2522,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
+          <t>1515 ACADEMY ST</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2578,7 +2582,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2642,7 +2646,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCAN-ITEM LEVEL     </t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2707,7 +2711,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
+          <t xml:space="preserve">SCAN-ITEM LEVEL     </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2767,7 +2771,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>901 W BRIDGE ST</t>
+          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2839,7 +2843,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
+          <t>901 W BRIDGE ST</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2907,7 +2911,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>7:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
+          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2953,7 +2957,11 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>7:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -2987,21 +2995,9 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -3062,17 +3058,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driver 1/2  </t>
+          <t>Driver 1/2, Equip</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3127,9 +3123,21 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Driver 1/2  </t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3152,7 +3160,7 @@
       <c r="W52" t="inlineStr">
         <is>
           <t>@ Store,
-2nd week, work w/ Leyna</t>
+2nd Festival (2nd week), work w/ Leyna</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3224,11 +3232,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3281,7 +3285,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3336,7 +3340,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3375,7 +3379,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>633 JUNCTION CT</t>
+          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3426,7 +3430,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
+          <t>633 JUNCTION CT</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3473,7 +3477,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
+          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3520,7 +3524,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t xml:space="preserve">*IL Meet is 5:15 am at IL office </t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3565,7 +3569,11 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
@@ -3615,22 +3623,9 @@
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>@ Store,
-Silver Van, Equip</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
@@ -3677,15 +3672,20 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>@ Store,
+Silver Van, Equip</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3724,12 +3724,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3771,20 +3771,15 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3823,17 +3818,18 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -3860,9 +3856,21 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -3939,11 +3947,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -3984,7 +3988,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4015,7 +4019,7 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>SENDIK'S, WHITEFISH BAY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -4046,7 +4050,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>500 E SILVER SPRING DR</t>
+          <t>SENDIK'S, WHITEFISH BAY</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -4081,7 +4085,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vzSQwdms9GJ2</t>
+          <t>500 E SILVER SPRING DR</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4114,7 +4118,11 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vzSQwdms9GJ2</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -4144,22 +4152,9 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4190,17 +4185,18 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
@@ -4233,12 +4229,12 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4276,12 +4272,12 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -4319,12 +4315,12 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4358,12 +4354,12 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -4409,12 +4405,12 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -4461,12 +4457,12 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4508,12 +4504,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -4555,12 +4551,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -4600,9 +4596,21 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -4675,11 +4683,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
@@ -4708,7 +4712,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -4739,7 +4743,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -4770,7 +4774,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -4801,7 +4805,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -4832,7 +4836,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -4861,7 +4865,11 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
@@ -4887,21 +4895,9 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
@@ -4928,15 +4924,19 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
@@ -4963,12 +4963,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -4998,12 +4998,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -5033,12 +5033,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -5068,12 +5068,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -5088,6 +5088,41 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -424,56 +424,44 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Sep 21</t>
+          <t>badger</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Mon, Sep 22</t>
-        </is>
+      <c r="E1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Tue, Sep 23</t>
-        </is>
+      <c r="I1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J1" t="inlineStr"/>
       <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Wed, Sep 24</t>
-        </is>
+      <c r="M1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="N1" t="inlineStr"/>
       <c r="O1" t="inlineStr"/>
       <c r="P1" t="inlineStr"/>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thu, Sep 25</t>
-        </is>
+      <c r="Q1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Fri, Sep 26</t>
-        </is>
+      <c r="U1" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Sat, Sep 27</t>
-        </is>
+      <c r="Y1" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2">

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -424,44 +424,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>badger</t>
+          <t>Sun, Sep 21</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
-      <c r="E1" t="e">
-        <v>#VALUE!</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mon, Sep 22</t>
+        </is>
       </c>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
-      <c r="I1" t="e">
-        <v>#VALUE!</v>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Tue, Sep 23</t>
+        </is>
       </c>
       <c r="J1" t="inlineStr"/>
       <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
-      <c r="M1" t="e">
-        <v>#VALUE!</v>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Wed, Sep 24</t>
+        </is>
       </c>
       <c r="N1" t="inlineStr"/>
       <c r="O1" t="inlineStr"/>
       <c r="P1" t="inlineStr"/>
-      <c r="Q1" t="e">
-        <v>#VALUE!</v>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thu, Sep 25</t>
+        </is>
       </c>
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
-      <c r="U1" t="e">
-        <v>#VALUE!</v>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Fri, Sep 26</t>
+        </is>
       </c>
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="e">
-        <v>#VALUE!</v>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Sat, Sep 27</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1479,7 +1491,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1744,7 +1756,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -3087,7 +3087,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3154,13 +3154,12 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Festival (2nd week), work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3202,13 +3201,13 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+2nd Festival (2nd week), work w/ Leyna</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3250,12 +3249,13 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3349,9 +3349,21 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -2916,9 +2916,21 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -3000,11 +3012,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3075,7 +3083,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3142,7 +3150,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3189,7 +3197,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>1776 LOGAN AVE</t>
+          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3237,7 +3245,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GwirBabPWYB2</t>
+          <t>1776 LOGAN AVE</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3293,7 +3301,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/GwirBabPWYB2</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3346,7 +3354,11 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
@@ -3396,21 +3408,9 @@
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3449,15 +3449,19 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3496,12 +3500,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3543,19 +3547,15 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Until 9:00</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3590,15 +3590,19 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Until 9:00</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3641,12 +3645,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3699,8 +3703,16 @@
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -1633,7 +1633,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> in file.  If a site has old ones left will need to get a price on site. </t>
+          <t xml:space="preserve">in file.  If a site has old ones left will need to get a price on site. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until Noon</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -4620,21 +4620,9 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -4707,7 +4695,11 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
@@ -4736,7 +4728,7 @@
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -4767,7 +4759,7 @@
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -4798,7 +4790,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -4829,7 +4821,7 @@
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
@@ -4860,7 +4852,7 @@
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
@@ -4889,11 +4881,7 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
-        </is>
-      </c>
+      <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
@@ -4919,9 +4907,21 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
@@ -4948,19 +4948,15 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
@@ -4987,12 +4983,12 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -5022,12 +5018,12 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -5057,12 +5053,12 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -5092,12 +5088,12 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
@@ -5112,41 +5108,6 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -1594,7 +1594,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>402 W LAKE ST</t>
+          <t>402 W Lake St</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1994,7 +1994,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>*4:30 am IL office leave time</t>
+          <t>6:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2039,11 +2039,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>6:15 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2085,9 +2081,21 @@
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2126,19 +2134,15 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2177,15 +2181,19 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store, Bring Modas Equip &amp; comp</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2226,21 +2234,9 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Bring Modas Equip &amp; comp</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2321,7 +2317,11 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2371,7 +2371,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2436,7 +2436,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2737, VERONA</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>FESTIVAL #2737, VERONA</t>
+          <t>660 HOMETOWN CIRCLE - LIFO</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2547,7 +2547,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>660 HOMETOWN CIRCLE - LIFO</t>
+          <t>https://goo.gl/maps/uMWf8LjrrGkj4TXq9</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2607,7 +2607,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uMWf8LjrrGkj4TXq9</t>
+          <t>*IL Meet is 5:15 am at IL office</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2669,11 +2669,7 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:15 am at IL office</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2732,9 +2728,21 @@
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2794,19 +2802,15 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2866,15 +2870,20 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2934,20 +2943,15 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2982,15 +2986,20 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3017,18 +3026,17 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3090,12 +3098,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3157,17 +3165,18 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Festival (2nd week), work w/ Leyna</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
@@ -3204,18 +3213,18 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
           <t>@ Store,
-2nd Festival (2nd week), work w/ Leyna</t>
+Trainer</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3252,18 +3261,17 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3308,12 +3316,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3361,21 +3369,9 @@
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -4988,7 +4984,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -5023,7 +5019,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
@@ -5058,7 +5054,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
@@ -5073,41 +5069,6 @@
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -2492,7 +2492,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 9</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -1594,7 +1594,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>402 W Lake St</t>
+          <t>402 W LAKE ST</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>

--- a/09-21-25 to 09-27-25 Madison Schedule.xlsx
+++ b/09-21-25 to 09-27-25 Madison Schedule.xlsx
@@ -3266,7 +3266,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3369,9 +3369,21 @@
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
